--- a/browser-server/测试文档/压力测试/websocket 压测说明文档.xlsx
+++ b/browser-server/测试文档/压力测试/websocket 压测说明文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13040" activeTab="4"/>
+    <workbookView windowWidth="30240" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="压测目标" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>5000个连接的read请求平均耗时不超过2000ms</t>
   </si>
   <si>
-    <t>5000个线程运行900m,连接不断开，read不报错</t>
+    <t>5000个线程运行900s,连接不断开，read不报错</t>
   </si>
   <si>
     <t>步骤</t>
@@ -459,9 +459,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -515,6 +515,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -522,24 +529,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,18 +558,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,26 +604,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,29 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -650,11 +635,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,13 +680,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +716,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,49 +794,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,31 +842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,61 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +883,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -898,29 +916,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +963,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -950,181 +980,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,8 +1447,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -61580,8 +61580,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>

--- a/browser-server/测试文档/压力测试/websocket 压测说明文档.xlsx
+++ b/browser-server/测试文档/压力测试/websocket 压测说明文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13040" activeTab="3"/>
+    <workbookView windowWidth="30240" windowHeight="13120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="压测目标" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>序号</t>
   </si>
@@ -341,6 +341,10 @@
     <t>2c8g</t>
   </si>
   <si>
+    <t>2c4g
+ -Xms3g -Xmx3g</t>
+  </si>
+  <si>
     <t>2c4g</t>
   </si>
   <si>
@@ -348,6 +352,9 @@
   </si>
   <si>
     <t>dev-1.1.1</t>
+  </si>
+  <si>
+    <t>proxy使用upgrade_ws-proxy.sh更新服务后，需要手动kill掉其他占内存的Java进程</t>
   </si>
   <si>
     <t>filter.jmx
@@ -60958,17 +60965,18 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="23.9285714285714" customWidth="1"/>
     <col min="2" max="2" width="45.8303571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3035714285714" customWidth="1"/>
     <col min="5" max="5" width="13.8839285714286" customWidth="1"/>
     <col min="6" max="6" width="15.6339285714286" customWidth="1"/>
     <col min="7" max="8" width="13.8839285714286" customWidth="1"/>
-    <col min="9" max="9" width="41.3839285714286" customWidth="1"/>
+    <col min="9" max="9" width="41.3839285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -60996,7 +61004,7 @@
       <c r="H1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -61010,50 +61018,52 @@
       <c r="C2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" s="6">
         <v>5000</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" ht="51" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6">
         <v>5000</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>99</v>
+      <c r="I3" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
